--- a/src/data/PCR_RCT_variables_05092017.xlsx
+++ b/src/data/PCR_RCT_variables_05092017.xlsx
@@ -1,23 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zasiddiq\AppData\Local\Box\Box Edit\Documents\2P0MmVmdAkmHNdHjuZLSQA==\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28705"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12630"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PCR failure" sheetId="1" r:id="rId1"/>
     <sheet name="RCT failure" sheetId="2" r:id="rId2"/>
     <sheet name="Variables identified_Literature" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -1312,16 +1310,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1553,7 +1551,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1588,7 +1586,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1765,7 +1763,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1775,34 +1773,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H13" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="48.28515625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="43.28515625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="28.28515625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="52.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.5703125" style="11" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" style="11" customWidth="1"/>
-    <col min="9" max="9" width="24.85546875" style="11" customWidth="1"/>
-    <col min="10" max="10" width="25.28515625" style="18" customWidth="1"/>
-    <col min="11" max="11" width="33.42578125" style="18" customWidth="1"/>
-    <col min="12" max="12" width="22.42578125" style="11" customWidth="1"/>
-    <col min="13" max="13" width="83.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="11" customWidth="1"/>
-    <col min="15" max="15" width="18.42578125" style="11" customWidth="1"/>
-    <col min="16" max="16" width="20.42578125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="48.33203125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="43.33203125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="28.33203125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="52.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5" style="11" customWidth="1"/>
+    <col min="8" max="8" width="21.5" style="11" customWidth="1"/>
+    <col min="9" max="9" width="24.83203125" style="11" customWidth="1"/>
+    <col min="10" max="10" width="25.33203125" style="18" customWidth="1"/>
+    <col min="11" max="11" width="33.5" style="18" customWidth="1"/>
+    <col min="12" max="12" width="22.5" style="11" customWidth="1"/>
+    <col min="13" max="13" width="83.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5" style="11" customWidth="1"/>
+    <col min="15" max="15" width="18.5" style="11" customWidth="1"/>
+    <col min="16" max="16" width="20.5" style="11" customWidth="1"/>
     <col min="17" max="17" width="25" style="11" customWidth="1"/>
-    <col min="18" max="18" width="61.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="11"/>
+    <col min="18" max="18" width="61.83203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.83203125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="12" customFormat="1">
       <c r="A1" s="17" t="s">
         <v>264</v>
       </c>
@@ -1817,7 +1815,7 @@
       <c r="J1" s="17"/>
       <c r="K1" s="17"/>
     </row>
-    <row r="2" spans="1:15" s="12" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" s="12" customFormat="1" ht="34.5" customHeight="1">
       <c r="A2" s="18" t="s">
         <v>265</v>
       </c>
@@ -1838,7 +1836,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" s="18" t="s">
         <v>266</v>
       </c>
@@ -1859,7 +1857,7 @@
       </c>
       <c r="O3"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" s="18" t="s">
         <v>280</v>
       </c>
@@ -1880,7 +1878,7 @@
       </c>
       <c r="O4"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5" s="18" t="s">
         <v>275</v>
       </c>
@@ -1901,7 +1899,7 @@
       </c>
       <c r="O5"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6" s="18" t="s">
         <v>276</v>
       </c>
@@ -1922,7 +1920,7 @@
       </c>
       <c r="O6"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="A7" s="18" t="s">
         <v>268</v>
       </c>
@@ -1940,7 +1938,7 @@
       </c>
       <c r="O7"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="A8" s="18" t="s">
         <v>292</v>
       </c>
@@ -1961,7 +1959,7 @@
       </c>
       <c r="O8"/>
     </row>
-    <row r="9" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="30">
       <c r="A9" s="18" t="s">
         <v>293</v>
       </c>
@@ -1982,7 +1980,7 @@
       </c>
       <c r="O9"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="A10" s="19" t="s">
         <v>279</v>
       </c>
@@ -2003,7 +2001,7 @@
       </c>
       <c r="O10"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="A11" s="18" t="s">
         <v>273</v>
       </c>
@@ -2024,7 +2022,7 @@
       </c>
       <c r="O11"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="A12" s="18" t="s">
         <v>267</v>
       </c>
@@ -2039,7 +2037,7 @@
       </c>
       <c r="O12"/>
     </row>
-    <row r="13" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="A13" s="2" t="s">
         <v>277</v>
       </c>
@@ -2057,7 +2055,7 @@
       </c>
       <c r="O13"/>
     </row>
-    <row r="14" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="45">
       <c r="A14" s="22" t="s">
         <v>294</v>
       </c>
@@ -2072,7 +2070,7 @@
       </c>
       <c r="O14"/>
     </row>
-    <row r="15" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="30">
       <c r="A15" s="18" t="s">
         <v>274</v>
       </c>
@@ -2088,7 +2086,7 @@
       </c>
       <c r="O15"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="L16" s="11" t="s">
         <v>18</v>
       </c>
@@ -2097,7 +2095,7 @@
       </c>
       <c r="O16"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15">
       <c r="A17" s="17" t="s">
         <v>283</v>
       </c>
@@ -2109,7 +2107,7 @@
       </c>
       <c r="O17"/>
     </row>
-    <row r="18" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="45">
       <c r="A18" s="18" t="s">
         <v>285</v>
       </c>
@@ -2124,7 +2122,7 @@
       </c>
       <c r="O18"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15">
       <c r="A19" s="18" t="s">
         <v>284</v>
       </c>
@@ -2136,7 +2134,7 @@
       </c>
       <c r="O19"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15">
       <c r="L20" s="11" t="s">
         <v>26</v>
       </c>
@@ -2145,7 +2143,7 @@
       </c>
       <c r="O20"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15">
       <c r="L21" s="11" t="s">
         <v>28</v>
       </c>
@@ -2153,7 +2151,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15">
       <c r="L22" s="11" t="s">
         <v>29</v>
       </c>
@@ -2161,7 +2159,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15">
       <c r="L23" s="11" t="s">
         <v>31</v>
       </c>
@@ -2169,7 +2167,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15">
       <c r="L24" s="11" t="s">
         <v>33</v>
       </c>
@@ -2177,7 +2175,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15">
       <c r="L25" s="11" t="s">
         <v>34</v>
       </c>
@@ -2185,7 +2183,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15">
       <c r="L26" s="11" t="s">
         <v>35</v>
       </c>
@@ -2193,7 +2191,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15">
       <c r="L27" s="11" t="s">
         <v>36</v>
       </c>
@@ -2201,7 +2199,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15">
       <c r="A28" s="2"/>
       <c r="L28" s="11" t="s">
         <v>37</v>
@@ -2210,7 +2208,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15">
       <c r="A29" s="2"/>
       <c r="L29" s="11" t="s">
         <v>38</v>
@@ -2219,7 +2217,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15">
       <c r="A30" s="2"/>
       <c r="L30" s="11" t="s">
         <v>39</v>
@@ -2228,7 +2226,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15">
       <c r="A31" s="2"/>
       <c r="L31" s="11" t="s">
         <v>40</v>
@@ -2237,7 +2235,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15">
       <c r="A32" s="2"/>
       <c r="L32" s="11" t="s">
         <v>42</v>
@@ -2246,7 +2244,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="12:13">
       <c r="L33" s="11" t="s">
         <v>44</v>
       </c>
@@ -2254,7 +2252,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="12:13">
       <c r="L34" s="11" t="s">
         <v>46</v>
       </c>
@@ -2262,7 +2260,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="12:13">
       <c r="L35" s="11" t="s">
         <v>48</v>
       </c>
@@ -2270,7 +2268,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="12:13">
       <c r="L36" s="11" t="s">
         <v>50</v>
       </c>
@@ -2278,7 +2276,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="12:13">
       <c r="L37" s="11" t="s">
         <v>79</v>
       </c>
@@ -2286,7 +2284,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="12:13">
       <c r="L38" s="11" t="s">
         <v>81</v>
       </c>
@@ -2294,7 +2292,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="12:13">
       <c r="L39" s="11" t="s">
         <v>83</v>
       </c>
@@ -2302,7 +2300,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="12:13">
       <c r="L40" s="11" t="s">
         <v>85</v>
       </c>
@@ -2310,7 +2308,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="41" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="12:13">
       <c r="L41" s="11" t="s">
         <v>86</v>
       </c>
@@ -2318,7 +2316,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="42" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="12:13">
       <c r="L42" s="11" t="s">
         <v>52</v>
       </c>
@@ -2326,7 +2324,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="12:13">
       <c r="L43" s="11" t="s">
         <v>54</v>
       </c>
@@ -2334,7 +2332,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="12:13">
       <c r="L44" s="11" t="s">
         <v>56</v>
       </c>
@@ -2342,7 +2340,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="45" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="12:13">
       <c r="L45" s="11" t="s">
         <v>57</v>
       </c>
@@ -2350,7 +2348,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="46" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="12:13">
       <c r="L46" s="11" t="s">
         <v>58</v>
       </c>
@@ -2358,7 +2356,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="12:13">
       <c r="L47" s="11" t="s">
         <v>60</v>
       </c>
@@ -2366,7 +2364,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="48" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="12:13">
       <c r="L48" s="11" t="s">
         <v>61</v>
       </c>
@@ -2374,7 +2372,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="49" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="10:13">
       <c r="L49" s="11" t="s">
         <v>63</v>
       </c>
@@ -2382,7 +2380,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="10:13">
       <c r="L50" s="11" t="s">
         <v>65</v>
       </c>
@@ -2390,7 +2388,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="51" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="10:13">
       <c r="L51" s="11" t="s">
         <v>67</v>
       </c>
@@ -2398,7 +2396,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="52" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="10:13">
       <c r="L52" s="11" t="s">
         <v>68</v>
       </c>
@@ -2406,7 +2404,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="53" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="10:13">
       <c r="L53" s="11" t="s">
         <v>69</v>
       </c>
@@ -2414,7 +2412,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="54" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="10:13">
       <c r="L54" s="11" t="s">
         <v>71</v>
       </c>
@@ -2422,7 +2420,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="55" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="10:13">
       <c r="L55" s="11" t="s">
         <v>73</v>
       </c>
@@ -2430,7 +2428,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="56" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="10:13">
       <c r="L56" s="11" t="s">
         <v>74</v>
       </c>
@@ -2438,7 +2436,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="57" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="10:13">
       <c r="L57" s="11" t="s">
         <v>75</v>
       </c>
@@ -2446,7 +2444,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="58" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="10:13">
       <c r="L58" s="11" t="s">
         <v>77</v>
       </c>
@@ -2454,7 +2452,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="60" spans="10:13" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="10:13" ht="30">
       <c r="J60" s="17" t="s">
         <v>332</v>
       </c>
@@ -2462,7 +2460,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="61" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="10:13">
       <c r="K61" s="18" t="s">
         <v>217</v>
       </c>
@@ -2473,7 +2471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="10:13">
       <c r="K62" s="18" t="s">
         <v>218</v>
       </c>
@@ -2484,7 +2482,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="63" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="10:13">
       <c r="L63" s="11" t="s">
         <v>89</v>
       </c>
@@ -2492,7 +2490,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="64" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="10:13">
       <c r="L64" s="11" t="s">
         <v>91</v>
       </c>
@@ -2500,7 +2498,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="65" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="10:13">
       <c r="L65" s="11" t="s">
         <v>93</v>
       </c>
@@ -2508,7 +2506,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="66" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="10:13">
       <c r="L66" s="11" t="s">
         <v>331</v>
       </c>
@@ -2516,7 +2514,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="67" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="10:13">
       <c r="L67" s="11" t="s">
         <v>95</v>
       </c>
@@ -2524,7 +2522,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="68" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="10:13">
       <c r="L68" s="11" t="s">
         <v>96</v>
       </c>
@@ -2532,7 +2530,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="69" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="10:13">
       <c r="L69" s="11" t="s">
         <v>97</v>
       </c>
@@ -2540,7 +2538,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="70" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="10:13">
       <c r="L70" s="11" t="s">
         <v>99</v>
       </c>
@@ -2548,7 +2546,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="71" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="10:13">
       <c r="L71" s="11" t="s">
         <v>101</v>
       </c>
@@ -2556,7 +2554,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="72" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="10:13">
       <c r="L72" s="11" t="s">
         <v>103</v>
       </c>
@@ -2564,7 +2562,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="74" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="10:13">
       <c r="J74" s="20" t="s">
         <v>290</v>
       </c>
@@ -2572,7 +2570,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="75" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="10:13">
       <c r="K75" s="18" t="s">
         <v>394</v>
       </c>
@@ -2583,7 +2581,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="76" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="10:13">
       <c r="K76" s="18" t="s">
         <v>395</v>
       </c>
@@ -2594,7 +2592,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="77" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="10:13">
       <c r="K77" s="18" t="s">
         <v>224</v>
       </c>
@@ -2605,7 +2603,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="78" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="10:13">
       <c r="L78" s="11" t="s">
         <v>209</v>
       </c>
@@ -2613,7 +2611,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="79" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="10:13">
       <c r="L79" s="11" t="s">
         <v>211</v>
       </c>
@@ -2621,7 +2619,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="80" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="10:13">
       <c r="L80" s="11" t="s">
         <v>213</v>
       </c>
@@ -2629,7 +2627,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="83" spans="10:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="10:13" ht="28">
       <c r="J83" s="20" t="s">
         <v>281</v>
       </c>
@@ -2637,7 +2635,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="84" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="10:13">
       <c r="L84" s="12" t="s">
         <v>0</v>
       </c>
@@ -2645,7 +2643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="10:13">
       <c r="L85" t="s">
         <v>105</v>
       </c>
@@ -2653,7 +2651,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="86" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="10:13">
       <c r="L86" t="s">
         <v>107</v>
       </c>
@@ -2661,7 +2659,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="87" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="10:13">
       <c r="L87" t="s">
         <v>109</v>
       </c>
@@ -2669,7 +2667,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="88" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="10:13">
       <c r="L88" t="s">
         <v>111</v>
       </c>
@@ -2677,7 +2675,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="89" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="10:13">
       <c r="L89" t="s">
         <v>113</v>
       </c>
@@ -2685,7 +2683,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="90" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="10:13">
       <c r="L90" t="s">
         <v>114</v>
       </c>
@@ -2693,7 +2691,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="91" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="10:13">
       <c r="L91" t="s">
         <v>115</v>
       </c>
@@ -2701,7 +2699,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="92" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="10:13">
       <c r="L92" t="s">
         <v>116</v>
       </c>
@@ -2709,7 +2707,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="93" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="10:13">
       <c r="L93" t="s">
         <v>117</v>
       </c>
@@ -2717,7 +2715,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="94" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="10:13">
       <c r="L94" t="s">
         <v>119</v>
       </c>
@@ -2725,7 +2723,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="95" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="10:13">
       <c r="L95" t="s">
         <v>121</v>
       </c>
@@ -2733,7 +2731,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="96" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="10:13">
       <c r="L96" t="s">
         <v>122</v>
       </c>
@@ -2741,7 +2739,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="97" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="12:13">
       <c r="L97" t="s">
         <v>123</v>
       </c>
@@ -2749,7 +2747,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="98" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="12:13">
       <c r="L98" t="s">
         <v>124</v>
       </c>
@@ -2757,7 +2755,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="99" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="12:13">
       <c r="L99" t="s">
         <v>125</v>
       </c>
@@ -2765,7 +2763,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="100" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="12:13">
       <c r="L100" t="s">
         <v>126</v>
       </c>
@@ -2773,7 +2771,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="101" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="12:13">
       <c r="L101" t="s">
         <v>127</v>
       </c>
@@ -2781,7 +2779,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="102" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="12:13">
       <c r="L102" t="s">
         <v>128</v>
       </c>
@@ -2789,7 +2787,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="103" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="12:13">
       <c r="L103" t="s">
         <v>130</v>
       </c>
@@ -2797,7 +2795,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="104" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="12:13">
       <c r="L104" t="s">
         <v>132</v>
       </c>
@@ -2805,7 +2803,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="105" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="12:13">
       <c r="L105" t="s">
         <v>134</v>
       </c>
@@ -2813,7 +2811,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="106" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="12:13">
       <c r="L106" t="s">
         <v>113</v>
       </c>
@@ -2821,7 +2819,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="107" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="12:13">
       <c r="L107" t="s">
         <v>137</v>
       </c>
@@ -2829,7 +2827,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="108" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="12:13">
       <c r="L108" t="s">
         <v>139</v>
       </c>
@@ -2837,7 +2835,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="109" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="12:13">
       <c r="L109" t="s">
         <v>141</v>
       </c>
@@ -2845,7 +2843,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="110" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="12:13">
       <c r="L110" t="s">
         <v>143</v>
       </c>
@@ -2853,7 +2851,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="111" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="12:13">
       <c r="L111" t="s">
         <v>144</v>
       </c>
@@ -2861,7 +2859,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="112" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="12:13">
       <c r="L112" t="s">
         <v>146</v>
       </c>
@@ -2869,7 +2867,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="113" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="12:13">
       <c r="L113" t="s">
         <v>147</v>
       </c>
@@ -2877,7 +2875,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="114" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="12:13">
       <c r="L114" t="s">
         <v>149</v>
       </c>
@@ -2885,7 +2883,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="115" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="12:13">
       <c r="L115" t="s">
         <v>151</v>
       </c>
@@ -2893,7 +2891,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="116" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="12:13">
       <c r="L116" t="s">
         <v>152</v>
       </c>
@@ -2901,7 +2899,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="117" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="12:13">
       <c r="L117" t="s">
         <v>153</v>
       </c>
@@ -2909,7 +2907,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="118" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="12:13">
       <c r="L118" t="s">
         <v>154</v>
       </c>
@@ -2917,7 +2915,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="119" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="12:13">
       <c r="L119" t="s">
         <v>156</v>
       </c>
@@ -2925,7 +2923,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="120" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="12:13">
       <c r="L120" t="s">
         <v>158</v>
       </c>
@@ -2933,7 +2931,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="121" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="12:13">
       <c r="L121" t="s">
         <v>160</v>
       </c>
@@ -2941,7 +2939,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="122" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="12:13">
       <c r="L122" t="s">
         <v>162</v>
       </c>
@@ -2949,7 +2947,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="123" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="12:13">
       <c r="L123" t="s">
         <v>164</v>
       </c>
@@ -2957,7 +2955,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="124" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="12:13">
       <c r="L124" t="s">
         <v>165</v>
       </c>
@@ -2965,7 +2963,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="125" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="12:13">
       <c r="L125" t="s">
         <v>167</v>
       </c>
@@ -2973,7 +2971,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="126" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="12:13">
       <c r="L126" t="s">
         <v>168</v>
       </c>
@@ -2981,7 +2979,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="127" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="12:13">
       <c r="L127" t="s">
         <v>170</v>
       </c>
@@ -2989,7 +2987,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="128" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="12:13">
       <c r="L128" t="s">
         <v>171</v>
       </c>
@@ -2997,7 +2995,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="129" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="5:13">
       <c r="L129" t="s">
         <v>172</v>
       </c>
@@ -3005,7 +3003,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="130" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="5:13">
       <c r="L130" t="s">
         <v>356</v>
       </c>
@@ -3013,7 +3011,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="131" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="5:13">
       <c r="L131" t="s">
         <v>175</v>
       </c>
@@ -3021,7 +3019,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="132" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="5:13">
       <c r="L132" s="11" t="s">
         <v>358</v>
       </c>
@@ -3029,7 +3027,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="133" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="5:13">
       <c r="J133" s="11"/>
       <c r="L133" s="11" t="s">
         <v>359</v>
@@ -3038,7 +3036,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="134" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="5:13">
       <c r="J134" s="11"/>
       <c r="L134" t="s">
         <v>188</v>
@@ -3047,7 +3045,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="135" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="5:13">
       <c r="J135" s="11"/>
       <c r="L135" t="s">
         <v>190</v>
@@ -3056,7 +3054,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="136" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="5:13">
       <c r="E136" s="12"/>
       <c r="J136" s="11"/>
       <c r="L136" t="s">
@@ -3066,7 +3064,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="137" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="5:13">
       <c r="J137" s="11"/>
       <c r="L137" t="s">
         <v>194</v>
@@ -3075,7 +3073,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="138" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="5:13">
       <c r="J138" s="11"/>
       <c r="L138" t="s">
         <v>196</v>
@@ -3084,7 +3082,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="139" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="5:13">
       <c r="L139" t="s">
         <v>198</v>
       </c>
@@ -3092,7 +3090,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="140" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="5:13">
       <c r="L140" t="s">
         <v>200</v>
       </c>
@@ -3100,7 +3098,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="141" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="5:13">
       <c r="L141" t="s">
         <v>202</v>
       </c>
@@ -3108,7 +3106,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="142" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="5:13">
       <c r="L142" t="s">
         <v>362</v>
       </c>
@@ -3116,7 +3114,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="143" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="5:13">
       <c r="L143" t="s">
         <v>363</v>
       </c>
@@ -3124,7 +3122,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="144" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="5:13">
       <c r="L144" t="s">
         <v>364</v>
       </c>
@@ -3132,7 +3130,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="145" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="10:13">
       <c r="L145" t="s">
         <v>365</v>
       </c>
@@ -3140,7 +3138,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="146" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="10:13">
       <c r="L146" t="s">
         <v>366</v>
       </c>
@@ -3148,7 +3146,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="147" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="10:13">
       <c r="L147" t="s">
         <v>367</v>
       </c>
@@ -3156,7 +3154,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="148" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="10:13">
       <c r="J148" s="11"/>
       <c r="L148" t="s">
         <v>368</v>
@@ -3165,7 +3163,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="149" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="10:13">
       <c r="J149" s="11"/>
       <c r="L149" t="s">
         <v>369</v>
@@ -3174,7 +3172,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="150" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="10:13">
       <c r="J150" s="11"/>
       <c r="L150" t="s">
         <v>177</v>
@@ -3183,7 +3181,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="151" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="10:13">
       <c r="L151" t="s">
         <v>179</v>
       </c>
@@ -3191,7 +3189,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="152" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="10:13">
       <c r="L152" t="s">
         <v>181</v>
       </c>
@@ -3199,7 +3197,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="153" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="10:13">
       <c r="L153" t="s">
         <v>370</v>
       </c>
@@ -3207,7 +3205,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="154" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="10:13">
       <c r="L154" t="s">
         <v>371</v>
       </c>
@@ -3215,7 +3213,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="155" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="10:13">
       <c r="L155" t="s">
         <v>372</v>
       </c>
@@ -3223,7 +3221,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="156" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="10:13">
       <c r="L156" t="s">
         <v>373</v>
       </c>
@@ -3231,7 +3229,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="157" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="10:13">
       <c r="L157" t="s">
         <v>374</v>
       </c>
@@ -3239,7 +3237,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="158" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="10:13">
       <c r="L158" t="s">
         <v>375</v>
       </c>
@@ -3247,7 +3245,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="159" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="10:13">
       <c r="L159" t="s">
         <v>376</v>
       </c>
@@ -3255,7 +3253,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="160" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="10:13">
       <c r="L160" t="s">
         <v>377</v>
       </c>
@@ -3263,7 +3261,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="161" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="12:13">
       <c r="L161" t="s">
         <v>183</v>
       </c>
@@ -3271,7 +3269,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="162" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="12:13">
       <c r="L162" t="s">
         <v>185</v>
       </c>
@@ -3279,7 +3277,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="163" spans="12:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="12:13">
       <c r="L163" t="s">
         <v>187</v>
       </c>
@@ -3289,8 +3287,13 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3298,25 +3301,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K92"/>
   <sheetViews>
-    <sheetView topLeftCell="C76" workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="40.42578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" customWidth="1"/>
-    <col min="6" max="6" width="35.85546875" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" customWidth="1"/>
-    <col min="8" max="8" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="40.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" customWidth="1"/>
+    <col min="6" max="6" width="35.83203125" customWidth="1"/>
+    <col min="7" max="7" width="23.83203125" customWidth="1"/>
+    <col min="8" max="8" width="23.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="32" style="2" customWidth="1"/>
-    <col min="10" max="10" width="20.140625" customWidth="1"/>
-    <col min="11" max="11" width="61.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="61.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.1640625" customWidth="1"/>
+    <col min="11" max="11" width="61.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="61.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15">
       <c r="A1" s="17" t="s">
         <v>264</v>
       </c>
@@ -3330,7 +3333,7 @@
       <c r="J1" s="12"/>
       <c r="K1" s="12"/>
     </row>
-    <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="18">
       <c r="A2" s="18" t="s">
         <v>265</v>
       </c>
@@ -3344,7 +3347,7 @@
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
     </row>
-    <row r="3" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="33" customHeight="1">
       <c r="A3" s="18" t="s">
         <v>266</v>
       </c>
@@ -3362,7 +3365,7 @@
       </c>
       <c r="K3" s="12"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15">
       <c r="A4" s="18" t="s">
         <v>280</v>
       </c>
@@ -3382,7 +3385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15">
       <c r="A5" s="18" t="s">
         <v>275</v>
       </c>
@@ -3402,7 +3405,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15">
       <c r="A6" s="18" t="s">
         <v>276</v>
       </c>
@@ -3422,7 +3425,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15">
       <c r="A7" s="22" t="s">
         <v>396</v>
       </c>
@@ -3436,7 +3439,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15">
       <c r="A8" s="18" t="s">
         <v>273</v>
       </c>
@@ -3447,7 +3450,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15">
       <c r="A9" s="18" t="s">
         <v>267</v>
       </c>
@@ -3458,7 +3461,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15">
       <c r="A10" s="2" t="s">
         <v>277</v>
       </c>
@@ -3472,7 +3475,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="33.75" customHeight="1">
       <c r="A11" s="22" t="s">
         <v>294</v>
       </c>
@@ -3481,7 +3484,7 @@
       </c>
       <c r="I11" s="17"/>
     </row>
-    <row r="12" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="50.25" customHeight="1">
       <c r="A12" s="18" t="s">
         <v>397</v>
       </c>
@@ -3497,7 +3500,7 @@
       </c>
       <c r="K12" s="11"/>
     </row>
-    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15">
       <c r="H13" s="18"/>
       <c r="I13" s="18"/>
       <c r="J13" s="12" t="s">
@@ -3507,7 +3510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="30">
       <c r="A14" s="17" t="s">
         <v>283</v>
       </c>
@@ -3521,7 +3524,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="45">
       <c r="A15" s="18" t="s">
         <v>285</v>
       </c>
@@ -3537,7 +3540,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15">
       <c r="A16" s="18" t="s">
         <v>284</v>
       </c>
@@ -3551,7 +3554,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="8:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="8:11" ht="15">
       <c r="H17" s="11"/>
       <c r="I17" s="18"/>
       <c r="J17" t="s">
@@ -3561,7 +3564,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="8:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="8:11" ht="15">
       <c r="H18" s="11"/>
       <c r="I18" s="18"/>
       <c r="J18" t="s">
@@ -3571,7 +3574,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="19" spans="8:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="8:11" ht="15">
       <c r="H19" s="11"/>
       <c r="I19" s="18"/>
       <c r="J19" t="s">
@@ -3581,7 +3584,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="20" spans="8:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="8:11" ht="15">
       <c r="H20" s="11"/>
       <c r="I20" s="18"/>
       <c r="J20" t="s">
@@ -3591,7 +3594,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="21" spans="8:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="8:11" ht="15">
       <c r="H21" s="11"/>
       <c r="I21" s="18"/>
       <c r="J21" t="s">
@@ -3601,7 +3604,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="22" spans="8:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="8:11" ht="15">
       <c r="H22" s="11"/>
       <c r="I22" s="18"/>
       <c r="J22" t="s">
@@ -3611,7 +3614,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="8:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="8:11" ht="15">
       <c r="H23" s="11"/>
       <c r="I23" s="18"/>
       <c r="J23" t="s">
@@ -3621,7 +3624,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="24" spans="8:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="8:11" ht="15">
       <c r="H24" s="11"/>
       <c r="I24" s="18"/>
       <c r="J24" t="s">
@@ -3631,7 +3634,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="25" spans="8:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="8:11" ht="15">
       <c r="H25" s="11"/>
       <c r="I25" s="18"/>
       <c r="J25" t="s">
@@ -3641,7 +3644,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="26" spans="8:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="8:11" ht="15">
       <c r="H26" s="11"/>
       <c r="I26" s="18"/>
       <c r="J26" t="s">
@@ -3651,7 +3654,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="27" spans="8:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="8:11" ht="15">
       <c r="H27" s="11"/>
       <c r="I27" s="18"/>
       <c r="J27" t="s">
@@ -3661,7 +3664,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="28" spans="8:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="8:11" ht="15">
       <c r="H28" s="11"/>
       <c r="I28" s="18"/>
       <c r="J28" t="s">
@@ -3671,7 +3674,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="29" spans="8:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="8:11" ht="15">
       <c r="H29" s="11"/>
       <c r="I29" s="18"/>
       <c r="J29" t="s">
@@ -3681,7 +3684,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="30" spans="8:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="8:11" ht="15">
       <c r="H30" s="11"/>
       <c r="I30" s="18"/>
       <c r="J30" t="s">
@@ -3691,7 +3694,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="31" spans="8:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="8:11" ht="15">
       <c r="H31" s="11"/>
       <c r="I31" s="18"/>
       <c r="J31" t="s">
@@ -3701,7 +3704,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="32" spans="8:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="8:11" ht="15">
       <c r="H32" s="11"/>
       <c r="I32" s="18"/>
       <c r="J32" t="s">
@@ -3711,7 +3714,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="33" spans="8:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="8:11" ht="15">
       <c r="H33" s="18"/>
       <c r="I33" s="18"/>
       <c r="J33" t="s">
@@ -3721,7 +3724,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="34" spans="8:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="8:11" ht="15">
       <c r="H34" s="18"/>
       <c r="I34" s="18"/>
       <c r="J34" t="s">
@@ -3731,7 +3734,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="35" spans="8:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="8:11" ht="15">
       <c r="H35" s="18"/>
       <c r="I35" s="18"/>
       <c r="J35" t="s">
@@ -3741,7 +3744,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="36" spans="8:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="8:11" ht="15">
       <c r="H36" s="18"/>
       <c r="I36" s="18"/>
       <c r="J36" t="s">
@@ -3751,7 +3754,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="37" spans="8:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="8:11" ht="15">
       <c r="H37" s="18"/>
       <c r="I37" s="18"/>
       <c r="J37" t="s">
@@ -3761,7 +3764,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="38" spans="8:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="8:11" ht="15">
       <c r="H38" s="18"/>
       <c r="I38" s="18"/>
       <c r="J38" t="s">
@@ -3771,7 +3774,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="39" spans="8:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="8:11" ht="15">
       <c r="H39" s="18"/>
       <c r="I39" s="18"/>
       <c r="J39" t="s">
@@ -3781,7 +3784,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="40" spans="8:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="8:11" ht="15">
       <c r="H40" s="18"/>
       <c r="I40" s="18"/>
       <c r="J40" t="s">
@@ -3791,7 +3794,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="41" spans="8:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="8:11" ht="15">
       <c r="H41" s="18"/>
       <c r="I41" s="18"/>
       <c r="J41" t="s">
@@ -3801,7 +3804,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="42" spans="8:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="8:11" ht="15">
       <c r="H42" s="18"/>
       <c r="I42" s="18"/>
       <c r="J42" t="s">
@@ -3811,7 +3814,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="43" spans="8:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="8:11" ht="15">
       <c r="H43" s="18"/>
       <c r="I43" s="18"/>
       <c r="J43" t="s">
@@ -3821,7 +3824,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="44" spans="8:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="8:11" ht="15">
       <c r="H44" s="18"/>
       <c r="I44" s="18"/>
       <c r="J44" t="s">
@@ -3831,7 +3834,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="45" spans="8:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="8:11" ht="15">
       <c r="H45" s="18"/>
       <c r="I45" s="18"/>
       <c r="J45" t="s">
@@ -3841,7 +3844,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="46" spans="8:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="8:11" ht="15">
       <c r="H46" s="18"/>
       <c r="I46" s="18"/>
       <c r="J46" t="s">
@@ -3851,7 +3854,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="47" spans="8:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="8:11" ht="15">
       <c r="H47" s="18"/>
       <c r="I47" s="18"/>
       <c r="J47" t="s">
@@ -3861,7 +3864,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="48" spans="8:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="8:11" ht="15">
       <c r="H48" s="18"/>
       <c r="I48" s="18"/>
       <c r="J48" t="s">
@@ -3871,7 +3874,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="49" spans="8:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="8:11" ht="15">
       <c r="H49" s="18"/>
       <c r="I49" s="18"/>
       <c r="J49" t="s">
@@ -3881,7 +3884,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="50" spans="8:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="8:11" ht="15">
       <c r="H50" s="18"/>
       <c r="I50" s="18"/>
       <c r="J50" t="s">
@@ -3891,7 +3894,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="51" spans="8:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="8:11" ht="15">
       <c r="H51" s="18"/>
       <c r="I51" s="18"/>
       <c r="J51" t="s">
@@ -3901,7 +3904,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="52" spans="8:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="8:11" ht="15">
       <c r="H52" s="18"/>
       <c r="I52" s="18"/>
       <c r="J52" t="s">
@@ -3911,7 +3914,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="53" spans="8:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="8:11" ht="15">
       <c r="H53" s="18"/>
       <c r="I53" s="18"/>
       <c r="J53" t="s">
@@ -3921,7 +3924,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="54" spans="8:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="8:11" ht="15">
       <c r="H54" s="18"/>
       <c r="I54" s="18"/>
       <c r="J54" t="s">
@@ -3931,7 +3934,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="55" spans="8:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="8:11" ht="15">
       <c r="H55" s="18"/>
       <c r="I55" s="18"/>
       <c r="J55" t="s">
@@ -3941,7 +3944,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="56" spans="8:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="8:11" ht="15">
       <c r="H56" s="18"/>
       <c r="I56" s="18"/>
       <c r="J56" t="s">
@@ -3951,7 +3954,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="57" spans="8:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="8:11" ht="15">
       <c r="H57" s="18"/>
       <c r="I57" s="18"/>
       <c r="J57" t="s">
@@ -3961,7 +3964,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="58" spans="8:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="8:11" ht="15">
       <c r="H58" s="18"/>
       <c r="I58" s="18"/>
       <c r="J58" t="s">
@@ -3971,7 +3974,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="59" spans="8:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="8:11" ht="15">
       <c r="H59" s="18"/>
       <c r="I59" s="18"/>
       <c r="J59" t="s">
@@ -3981,7 +3984,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="60" spans="8:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="8:11" ht="15">
       <c r="H60" s="18"/>
       <c r="I60" s="18"/>
       <c r="J60" t="s">
@@ -3991,7 +3994,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="61" spans="8:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="8:11" ht="15">
       <c r="H61" s="18"/>
       <c r="I61" s="18"/>
       <c r="J61" s="11" t="s">
@@ -4001,7 +4004,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="62" spans="8:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="8:11" ht="15">
       <c r="H62" s="18"/>
       <c r="I62" s="18"/>
       <c r="J62" s="11" t="s">
@@ -4011,7 +4014,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="63" spans="8:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="8:11" ht="15">
       <c r="H63" s="18"/>
       <c r="I63" s="18"/>
       <c r="J63" t="s">
@@ -4021,7 +4024,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="64" spans="8:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="8:11" ht="15">
       <c r="H64" s="18"/>
       <c r="I64" s="18"/>
       <c r="J64" t="s">
@@ -4031,7 +4034,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="65" spans="8:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="8:11" ht="15">
       <c r="H65" s="18"/>
       <c r="I65" s="18"/>
       <c r="J65" t="s">
@@ -4041,7 +4044,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="66" spans="8:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="8:11" ht="15">
       <c r="H66" s="18"/>
       <c r="I66" s="18"/>
       <c r="J66" t="s">
@@ -4051,7 +4054,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="67" spans="8:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="8:11" ht="15">
       <c r="H67" s="18"/>
       <c r="I67" s="18"/>
       <c r="J67" t="s">
@@ -4061,7 +4064,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="68" spans="8:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="8:11" ht="15">
       <c r="H68" s="18"/>
       <c r="I68" s="18"/>
       <c r="J68" t="s">
@@ -4071,7 +4074,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="69" spans="8:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="8:11" ht="15">
       <c r="H69" s="18"/>
       <c r="I69" s="18"/>
       <c r="J69" t="s">
@@ -4081,7 +4084,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="70" spans="8:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="8:11" ht="15">
       <c r="H70" s="18"/>
       <c r="I70" s="18"/>
       <c r="J70" t="s">
@@ -4091,7 +4094,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="71" spans="8:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="8:11" ht="15">
       <c r="H71" s="18"/>
       <c r="I71" s="18"/>
       <c r="J71" t="s">
@@ -4101,7 +4104,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="72" spans="8:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="8:11" ht="15">
       <c r="H72" s="18"/>
       <c r="I72" s="18"/>
       <c r="J72" t="s">
@@ -4111,7 +4114,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="73" spans="8:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="8:11" ht="15">
       <c r="H73" s="18"/>
       <c r="I73" s="18"/>
       <c r="J73" t="s">
@@ -4121,7 +4124,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="74" spans="8:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="8:11" ht="15">
       <c r="H74" s="18"/>
       <c r="I74" s="18"/>
       <c r="J74" t="s">
@@ -4131,7 +4134,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="75" spans="8:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="8:11" ht="15">
       <c r="H75" s="18"/>
       <c r="I75" s="18"/>
       <c r="J75" t="s">
@@ -4141,7 +4144,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="76" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="8:11">
       <c r="J76" t="s">
         <v>367</v>
       </c>
@@ -4149,7 +4152,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="77" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="8:11">
       <c r="J77" t="s">
         <v>368</v>
       </c>
@@ -4157,7 +4160,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="78" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="8:11">
       <c r="J78" t="s">
         <v>369</v>
       </c>
@@ -4165,7 +4168,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="79" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="8:11">
       <c r="J79" t="s">
         <v>177</v>
       </c>
@@ -4173,7 +4176,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="80" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="8:11">
       <c r="J80" t="s">
         <v>179</v>
       </c>
@@ -4181,7 +4184,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="81" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="10:11">
       <c r="J81" t="s">
         <v>181</v>
       </c>
@@ -4189,7 +4192,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="82" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="10:11">
       <c r="J82" t="s">
         <v>370</v>
       </c>
@@ -4197,7 +4200,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="83" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="10:11">
       <c r="J83" t="s">
         <v>371</v>
       </c>
@@ -4205,7 +4208,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="84" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="10:11">
       <c r="J84" t="s">
         <v>372</v>
       </c>
@@ -4213,7 +4216,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="85" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="10:11">
       <c r="J85" t="s">
         <v>373</v>
       </c>
@@ -4221,7 +4224,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="86" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="10:11">
       <c r="J86" t="s">
         <v>374</v>
       </c>
@@ -4229,7 +4232,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="87" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="10:11">
       <c r="J87" t="s">
         <v>375</v>
       </c>
@@ -4237,7 +4240,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="88" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="10:11">
       <c r="J88" t="s">
         <v>376</v>
       </c>
@@ -4245,7 +4248,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="89" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="10:11">
       <c r="J89" t="s">
         <v>377</v>
       </c>
@@ -4253,7 +4256,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="90" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="10:11">
       <c r="J90" t="s">
         <v>183</v>
       </c>
@@ -4261,7 +4264,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="91" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="10:11">
       <c r="J91" t="s">
         <v>185</v>
       </c>
@@ -4269,7 +4272,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="92" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="10:11">
       <c r="J92" t="s">
         <v>187</v>
       </c>
@@ -4279,6 +4282,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4290,24 +4298,24 @@
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33" style="2" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="30.5703125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="25.140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="20.140625" style="2"/>
+    <col min="3" max="3" width="29.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="30.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="25.1640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="20.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="70">
       <c r="A2" s="3" t="s">
         <v>226</v>
       </c>
@@ -4330,7 +4338,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="5" t="s">
         <v>233</v>
       </c>
@@ -4345,7 +4353,7 @@
       </c>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="30" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>235</v>
       </c>
@@ -4364,7 +4372,7 @@
       </c>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">
         <v>236</v>
       </c>
@@ -4381,7 +4389,7 @@
       </c>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="8" t="s">
         <v>237</v>
       </c>
@@ -4394,7 +4402,7 @@
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
         <v>238</v>
       </c>
@@ -4409,7 +4417,7 @@
       </c>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="5" t="s">
         <v>239</v>
       </c>
@@ -4422,7 +4430,7 @@
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="5" t="s">
         <v>240</v>
       </c>
@@ -4435,7 +4443,7 @@
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="5" t="s">
         <v>220</v>
       </c>
@@ -4448,7 +4456,7 @@
       </c>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="3" t="s">
         <v>241</v>
       </c>
@@ -4465,7 +4473,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="5" t="s">
         <v>242</v>
       </c>
@@ -4478,7 +4486,7 @@
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="5" t="s">
         <v>243</v>
       </c>
@@ -4495,7 +4503,7 @@
       </c>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="30" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>244</v>
       </c>
@@ -4510,7 +4518,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="5" t="s">
         <v>245</v>
       </c>
@@ -4523,7 +4531,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="42">
       <c r="A16" s="3" t="s">
         <v>246</v>
       </c>
@@ -4538,7 +4546,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="28">
       <c r="A17" s="3" t="s">
         <v>248</v>
       </c>
@@ -4551,15 +4559,15 @@
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="70">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
         <v>251</v>
@@ -4574,7 +4582,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="3" t="s">
         <v>244</v>
       </c>
@@ -4591,7 +4599,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="28">
       <c r="A24" s="3" t="s">
         <v>255</v>
       </c>
@@ -4608,7 +4616,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="3" t="s">
         <v>256</v>
       </c>
@@ -4619,7 +4627,7 @@
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="3" t="s">
         <v>257</v>
       </c>
@@ -4630,7 +4638,7 @@
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
     </row>
-    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="30" customHeight="1">
       <c r="A27" s="3" t="s">
         <v>258</v>
       </c>
@@ -4647,5 +4655,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>